--- a/xlsx/country_comparison/solidarity_support_climate_share.xlsx
+++ b/xlsx/country_comparison/solidarity_support_climate_share.xlsx
@@ -454,7 +454,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.794189426632509</v>
+        <v>0.793366965036613</v>
       </c>
       <c r="C2" t="n">
         <v>0.820231998216116</v>
@@ -481,16 +481,16 @@
         <v>0.752261706136369</v>
       </c>
       <c r="K2" t="n">
-        <v>0.804968987418959</v>
+        <v>0.805037944194611</v>
       </c>
       <c r="L2" t="n">
-        <v>0.83450478996974</v>
+        <v>0.829224529123518</v>
       </c>
       <c r="M2" t="n">
         <v>0.870851551659494</v>
       </c>
       <c r="N2" t="n">
-        <v>0.740111944442514</v>
+        <v>0.740197166164522</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.74891324454649</v>
+        <v>0.748295871658231</v>
       </c>
       <c r="C3" t="n">
         <v>0.748627231605022</v>
@@ -525,16 +525,16 @@
         <v>0.667442126414247</v>
       </c>
       <c r="K3" t="n">
-        <v>0.727201227855492</v>
+        <v>0.727293734869913</v>
       </c>
       <c r="L3" t="n">
-        <v>0.873558433686924</v>
+        <v>0.866768469161838</v>
       </c>
       <c r="M3" t="n">
         <v>0.894499688071821</v>
       </c>
       <c r="N3" t="n">
-        <v>0.697721961151291</v>
+        <v>0.697898274519676</v>
       </c>
     </row>
     <row r="4">
@@ -542,7 +542,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.700357100296232</v>
+        <v>0.699644803977167</v>
       </c>
       <c r="C4" t="n">
         <v>0.732870289440397</v>
@@ -569,16 +569,16 @@
         <v>0.718133301168214</v>
       </c>
       <c r="K4" t="n">
-        <v>0.58759070342811</v>
+        <v>0.58767644567848</v>
       </c>
       <c r="L4" t="n">
-        <v>0.731306566882626</v>
+        <v>0.72514029245591</v>
       </c>
       <c r="M4" t="n">
         <v>0.814900578705803</v>
       </c>
       <c r="N4" t="n">
-        <v>0.674291226582879</v>
+        <v>0.674357186299684</v>
       </c>
     </row>
     <row r="5">
@@ -586,7 +586,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.682188628877153</v>
+        <v>0.683174203642518</v>
       </c>
       <c r="C5" t="n">
         <v>0.69192411456902</v>
@@ -613,16 +613,16 @@
         <v>0.645323472858561</v>
       </c>
       <c r="K5" t="n">
-        <v>0.589973195888163</v>
+        <v>0.59008286280892</v>
       </c>
       <c r="L5" t="n">
-        <v>0.868962834674846</v>
+        <v>0.875589503017251</v>
       </c>
       <c r="M5" t="n">
         <v>0.858825470219245</v>
       </c>
       <c r="N5" t="n">
-        <v>0.614095688520786</v>
+        <v>0.614162213651268</v>
       </c>
     </row>
     <row r="6">
@@ -630,7 +630,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.527237118011288</v>
+        <v>0.526319576644156</v>
       </c>
       <c r="C6" t="n">
         <v>0.551475483086733</v>
@@ -657,16 +657,16 @@
         <v>0.506594819956859</v>
       </c>
       <c r="K6" t="n">
-        <v>0.463457653897951</v>
+        <v>0.46350801136536</v>
       </c>
       <c r="L6" t="n">
-        <v>0.519297451909645</v>
+        <v>0.514246894490421</v>
       </c>
       <c r="M6" t="n">
         <v>0.695189510992556</v>
       </c>
       <c r="N6" t="n">
-        <v>0.507504485068355</v>
+        <v>0.507370211647722</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/solidarity_support_climate_share.xlsx
+++ b/xlsx/country_comparison/solidarity_support_climate_share.xlsx
@@ -454,7 +454,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.793366965036613</v>
+        <v>0.793302229139668</v>
       </c>
       <c r="C2" t="n">
         <v>0.820231998216116</v>
@@ -484,7 +484,7 @@
         <v>0.805037944194611</v>
       </c>
       <c r="L2" t="n">
-        <v>0.829224529123518</v>
+        <v>0.82923199154678</v>
       </c>
       <c r="M2" t="n">
         <v>0.870851551659494</v>
@@ -498,7 +498,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.748295871658231</v>
+        <v>0.748783561969176</v>
       </c>
       <c r="C3" t="n">
         <v>0.748627231605022</v>
@@ -528,7 +528,7 @@
         <v>0.727293734869913</v>
       </c>
       <c r="L3" t="n">
-        <v>0.866768469161838</v>
+        <v>0.872657913626467</v>
       </c>
       <c r="M3" t="n">
         <v>0.894499688071821</v>
@@ -542,7 +542,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.699644803977167</v>
+        <v>0.700580371227263</v>
       </c>
       <c r="C4" t="n">
         <v>0.732870289440397</v>
@@ -572,7 +572,7 @@
         <v>0.58767644567848</v>
       </c>
       <c r="L4" t="n">
-        <v>0.72514029245591</v>
+        <v>0.733977871206694</v>
       </c>
       <c r="M4" t="n">
         <v>0.814900578705803</v>
@@ -586,7 +586,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.683174203642518</v>
+        <v>0.683123223291107</v>
       </c>
       <c r="C5" t="n">
         <v>0.69192411456902</v>
@@ -616,7 +616,7 @@
         <v>0.59008286280892</v>
       </c>
       <c r="L5" t="n">
-        <v>0.875589503017251</v>
+        <v>0.875248081044094</v>
       </c>
       <c r="M5" t="n">
         <v>0.858825470219245</v>
@@ -630,7 +630,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.526319576644156</v>
+        <v>0.526444294027161</v>
       </c>
       <c r="C6" t="n">
         <v>0.551475483086733</v>
@@ -660,7 +660,7 @@
         <v>0.46350801136536</v>
       </c>
       <c r="L6" t="n">
-        <v>0.514246894490421</v>
+        <v>0.514890820206037</v>
       </c>
       <c r="M6" t="n">
         <v>0.695189510992556</v>
